--- a/biology/Histoire de la zoologie et de la botanique/Henri_Cayeux/Henri_Cayeux.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Henri_Cayeux/Henri_Cayeux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri Cayeux (Bouttencourt, 12 février 1869 - Le Havre, 15 juin 1963[1]) est un botaniste français, frère cadet de Ferdinand Cayeux.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri Cayeux (Bouttencourt, 12 février 1869 - Le Havre, 15 juin 1963) est un botaniste français, frère cadet de Ferdinand Cayeux.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né dans la Somme, il intègre l'école nationale d'horticulture de Versailles devenant ingénieur horticole[2]. Il fut directeur du jardin botanique de Lisbonne de 1892 à 1909 (succédant à J. Daveau), puis des Jardins et promenades du Havre, jusqu'en 1935[3]. Il est à l'origine de plus de deux cents variétés de plantes, surtout d'hybrides horticoles d'iris, de roses (comme 'Belle Portugaise', 1903[4]), et d'hortensias fameux (dont 'Merveille'), etc.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né dans la Somme, il intègre l'école nationale d'horticulture de Versailles devenant ingénieur horticole. Il fut directeur du jardin botanique de Lisbonne de 1892 à 1909 (succédant à J. Daveau), puis des Jardins et promenades du Havre, jusqu'en 1935. Il est à l'origine de plus de deux cents variétés de plantes, surtout d'hybrides horticoles d'iris, de roses (comme 'Belle Portugaise', 1903), et d'hortensias fameux (dont 'Merveille'), etc.
 </t>
         </is>
       </c>
